--- a/natmiOut/OldD0/LR-pairs_lrc2p/Efna5-Epha3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Efna5-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Epha3</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,60 +525,60 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.54979509603513</v>
+        <v>1.666083666666667</v>
       </c>
       <c r="H2">
-        <v>1.54979509603513</v>
+        <v>4.998251</v>
       </c>
       <c r="I2">
-        <v>0.604094647186513</v>
+        <v>0.6125276070882968</v>
       </c>
       <c r="J2">
-        <v>0.604094647186513</v>
+        <v>0.6125276070882968</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>21.9051647765814</v>
+        <v>0.06698166666666668</v>
       </c>
       <c r="N2">
-        <v>21.9051647765814</v>
+        <v>0.200945</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.003012576978541733</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.003012576978541732</v>
       </c>
       <c r="Q2">
-        <v>33.94851694858732</v>
+        <v>0.1115970607994445</v>
       </c>
       <c r="R2">
-        <v>33.94851694858732</v>
+        <v>1.004373547195</v>
       </c>
       <c r="S2">
-        <v>0.604094647186513</v>
+        <v>0.001845286567835459</v>
       </c>
       <c r="T2">
-        <v>0.604094647186513</v>
+        <v>0.001845286567835459</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -587,52 +590,300 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.0156888115828</v>
+        <v>1.666083666666667</v>
       </c>
       <c r="H3">
-        <v>1.0156888115828</v>
+        <v>4.998251</v>
       </c>
       <c r="I3">
-        <v>0.395905352813487</v>
+        <v>0.6125276070882968</v>
       </c>
       <c r="J3">
-        <v>0.395905352813487</v>
+        <v>0.6125276070882968</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.9051647765814</v>
+        <v>22.03620333333333</v>
       </c>
       <c r="N3">
-        <v>21.9051647765814</v>
+        <v>66.10861</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9911034191912899</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9911034191912899</v>
       </c>
       <c r="Q3">
-        <v>22.24883077945137</v>
+        <v>36.71415844901222</v>
       </c>
       <c r="R3">
-        <v>22.24883077945137</v>
+        <v>330.42742604111</v>
       </c>
       <c r="S3">
-        <v>0.395905352813487</v>
+        <v>0.6070782057342698</v>
       </c>
       <c r="T3">
-        <v>0.395905352813487</v>
+        <v>0.6070782057342698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.666083666666667</v>
+      </c>
+      <c r="H4">
+        <v>4.998251</v>
+      </c>
+      <c r="I4">
+        <v>0.6125276070882968</v>
+      </c>
+      <c r="J4">
+        <v>0.6125276070882968</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.130825</v>
+      </c>
+      <c r="N4">
+        <v>0.392475</v>
+      </c>
+      <c r="O4">
+        <v>0.005884003830168287</v>
+      </c>
+      <c r="P4">
+        <v>0.005884003830168287</v>
+      </c>
+      <c r="Q4">
+        <v>0.2179653956916666</v>
+      </c>
+      <c r="R4">
+        <v>1.961688561225</v>
+      </c>
+      <c r="S4">
+        <v>0.003604114786191354</v>
+      </c>
+      <c r="T4">
+        <v>0.003604114786191354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.053930333333333</v>
+      </c>
+      <c r="H5">
+        <v>3.161791</v>
+      </c>
+      <c r="I5">
+        <v>0.3874723929117032</v>
+      </c>
+      <c r="J5">
+        <v>0.3874723929117031</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.06698166666666668</v>
+      </c>
+      <c r="N5">
+        <v>0.200945</v>
+      </c>
+      <c r="O5">
+        <v>0.003012576978541733</v>
+      </c>
+      <c r="P5">
+        <v>0.003012576978541732</v>
+      </c>
+      <c r="Q5">
+        <v>0.07059401027722223</v>
+      </c>
+      <c r="R5">
+        <v>0.6353460924950001</v>
+      </c>
+      <c r="S5">
+        <v>0.001167290410706274</v>
+      </c>
+      <c r="T5">
+        <v>0.001167290410706274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.053930333333333</v>
+      </c>
+      <c r="H6">
+        <v>3.161791</v>
+      </c>
+      <c r="I6">
+        <v>0.3874723929117032</v>
+      </c>
+      <c r="J6">
+        <v>0.3874723929117031</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>22.03620333333333</v>
+      </c>
+      <c r="N6">
+        <v>66.10861</v>
+      </c>
+      <c r="O6">
+        <v>0.9911034191912899</v>
+      </c>
+      <c r="P6">
+        <v>0.9911034191912899</v>
+      </c>
+      <c r="Q6">
+        <v>23.22462312450111</v>
+      </c>
+      <c r="R6">
+        <v>209.02160812051</v>
+      </c>
+      <c r="S6">
+        <v>0.38402521345702</v>
+      </c>
+      <c r="T6">
+        <v>0.3840252134570198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.053930333333333</v>
+      </c>
+      <c r="H7">
+        <v>3.161791</v>
+      </c>
+      <c r="I7">
+        <v>0.3874723929117032</v>
+      </c>
+      <c r="J7">
+        <v>0.3874723929117031</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.130825</v>
+      </c>
+      <c r="N7">
+        <v>0.392475</v>
+      </c>
+      <c r="O7">
+        <v>0.005884003830168287</v>
+      </c>
+      <c r="P7">
+        <v>0.005884003830168287</v>
+      </c>
+      <c r="Q7">
+        <v>0.1378804358583333</v>
+      </c>
+      <c r="R7">
+        <v>1.240923922725</v>
+      </c>
+      <c r="S7">
+        <v>0.002279889043976933</v>
+      </c>
+      <c r="T7">
+        <v>0.002279889043976933</v>
       </c>
     </row>
   </sheetData>
